--- a/Exercise1.xlsx
+++ b/Exercise1.xlsx
@@ -382,7 +382,7 @@
     <t>Siti Nur Fatihah Binti Fauzi</t>
   </si>
   <si>
-    <t>No Submision</t>
+    <t>No Submission</t>
   </si>
   <si>
     <t>249879</t>
@@ -985,7 +985,7 @@
   <cols>
     <col min="2" max="2" width="7.7265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="29.7578125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="13.37890625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.23828125" customWidth="true" bestFit="true"/>
     <col min="1" max="1" width="4.171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
